--- a/data/long_dif/P23_10-Edad-long_dif.xlsx
+++ b/data/long_dif/P23_10-Edad-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +627,52 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>22,41%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>23,59%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,38%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>18,61%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25,1%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>19,47%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20,44%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,44; 39,66</t>
+          <t>18,23; 35,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,97; 32,78</t>
+          <t>14,81; 32,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,23; 32,25</t>
+          <t>12,32; 35,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,34; 22,06</t>
+          <t>16,46; 31,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,45; 33,5</t>
+          <t>10,39; 23,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,06; 25,04</t>
+          <t>11,04; 26,96</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>19,63; 32,2</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13,84; 25,04</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>14,06; 28,31</t>
         </is>
       </c>
     </row>
@@ -672,35 +733,50 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>55,63%</t>
+          <t>58,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>56,04%</t>
+          <t>54,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>57,61%</t>
+          <t>59,41%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>63,89%</t>
+          <t>58,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>56,59%</t>
+          <t>63,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>60,44%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>58,69%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>58,85%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>59,95%</t>
         </is>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>45,66; 65,5</t>
+          <t>49,23; 69,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>46,01; 67,92</t>
+          <t>42,94; 63,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>48,53; 66,37</t>
+          <t>45,07; 72,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>54,71; 71,71</t>
+          <t>48,26; 66,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,71; 64,16</t>
+          <t>54,8; 70,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>53,07; 66,68</t>
+          <t>49,74; 69,7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>51,93; 66,16</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>51,89; 65,51</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>50,69; 67,39</t>
         </is>
       </c>
     </row>
@@ -748,37 +839,52 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>22,91%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,99%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,71%</t>
+          <t>20,95%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16,21%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>21,68%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>19,61%</t>
         </is>
       </c>
     </row>
@@ -791,74 +897,100 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,74; 23,44</t>
+          <t>8,68; 23,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,48; 29,87</t>
+          <t>14,98; 34,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,4; 26,81</t>
+          <t>8,81; 31,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,37; 28,36</t>
+          <t>12,12; 26,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,49; 23,54</t>
+          <t>13,94; 27,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,84; 26,9</t>
+          <t>13,53; 30,74</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>11,29; 21,32</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16,4; 28,13</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>13,41; 28,01</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1003,104 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,5; 32,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,75; 40,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,87; 33,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,35; 26,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,94; 29,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,05; 32,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>55,35%</t>
+          <t>21,49%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>61,22%</t>
+          <t>22,78%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>53,43%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>63,6%</t>
+          <t>24,38%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>54,45%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>62,34%</t>
+          <t>18,14%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>22,85%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>21,35%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16,92%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1113,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>44,15; 66,93</t>
+          <t>13,79; 29,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>47,19; 70,93</t>
+          <t>13,63; 42,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>44,75; 62,6</t>
+          <t>8,82; 24,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>56,92; 71,11</t>
+          <t>16,67; 32,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>47,6; 62,12</t>
+          <t>14,39; 26,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,41; 67,86</t>
+          <t>11,33; 27,45</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>17,27; 29,07</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>15,97; 32,17</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11,95; 22,92</t>
         </is>
       </c>
     </row>
@@ -980,37 +1161,52 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>54,29%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>60,02%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>41,97%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>54,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>63,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>65,88%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>54,24%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>61,71%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>52,75%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1219,100 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,75; 34,61</t>
+          <t>41,75; 67,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,73; 24,66</t>
+          <t>45,57; 69,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,07; 29,6</t>
+          <t>24,53; 55,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,74; 22,04</t>
+          <t>45,07; 62,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,5; 29,78</t>
+          <t>56,55; 70,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,96; 20,95</t>
+          <t>55,76; 74,38</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>47,04; 62,38</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>53,64; 67,81</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>39,85; 61,73</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>27,99%</t>
+          <t>24,22%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>42,12%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>21,44%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>15,98%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>22,91%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>16,93%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>30,33%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1325,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>20,84; 35,4</t>
+          <t>15,09; 39,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,5; 35,1</t>
+          <t>10,75; 25,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,56; 26,78</t>
+          <t>26,19; 64,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,54; 21,2</t>
+          <t>15,12; 29,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,13; 29,28</t>
+          <t>11,86; 22,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,99; 26,45</t>
+          <t>10,31; 23,67</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>17,1; 31,45</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>12,84; 21,6</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>20,4; 49,38</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1373,52 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>51,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>52,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>58,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>63,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>55,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>58,46%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1431,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>42,7; 60,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>43,9; 59,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>51,42; 64,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>58,07; 69,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>49,59; 60,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>52,89; 63,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>26,84%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>26,07%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>28,45%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>21,1%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>20,58%</t>
+          <t>17,36%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>16,22%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>23,84%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>21,64%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>22,07%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1541,100 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>14,96; 27,31</t>
+          <t>19,79; 34,27</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>15,64; 28,28</t>
+          <t>19,41; 36,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>15,74; 26,65</t>
+          <t>20,89; 40,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,87; 23,53</t>
+          <t>16,28; 26,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>16,61; 25,52</t>
+          <t>12,98; 21,8</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>16,68; 24,26</t>
+          <t>11,78; 21,26</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>19,48; 28,34</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>17,29; 27,08</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>17,96; 28,02</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>26,71%</t>
+          <t>52,38%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>28,14%</t>
+          <t>52,38%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>26,17%</t>
+          <t>49,05%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>57,57%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>26,43%</t>
+          <t>63,45%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>69,53%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>55,09%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>58,02%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>59,73%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1647,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>20,7; 33,49</t>
+          <t>43,42; 61,32</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>22,57; 35,38</t>
+          <t>44,58; 60,41</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>20,78; 32,34</t>
+          <t>40,38; 57,4</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>15,72; 24,98</t>
+          <t>51,48; 64,63</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>22,48; 31,1</t>
+          <t>57,15; 68,36</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>19,97; 28,4</t>
+          <t>64,2; 76,16</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>49,71; 61,08</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>53,02; 62,66</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>54,41; 64,94</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1695,52 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>48,69%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>50,38%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>49,86%</t>
+          <t>22,5%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>51,25%</t>
+          <t>21,33%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>49,29%</t>
+          <t>19,18%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>50,83%</t>
+          <t>14,25%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>21,07%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>20,35%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>18,2%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +1753,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>40,51; 56,57</t>
+          <t>15,39; 28,92</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>43,38; 57,07</t>
+          <t>15,76; 28,06</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>43,93; 56,11</t>
+          <t>16,14; 29,39</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>45,24; 56,84</t>
+          <t>16,13; 27,68</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>43,58; 53,89</t>
+          <t>14,71; 24,04</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>46,17; 55,23</t>
+          <t>10,24; 19,01</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>17,16; 25,75</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>16,75; 24,46</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>14,8; 22,4</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1801,52 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>24,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>29,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>24,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>25,51%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,74 +1859,104 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>18,51; 33,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>16,43; 27,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>18,43; 29,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>24,42; 34,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>20,26; 29,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>21,72; 29,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>26,89%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>28,46%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>22,3%</t>
+          <t>25,8%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>19,29%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>31,72%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>26,33%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>23,74%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>27,31%</t>
         </is>
       </c>
     </row>
@@ -1567,32 +1969,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>20,92; 37,53</t>
+          <t>20,75; 34,42</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>13,48; 25,73</t>
+          <t>21,96; 37,23</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>15,01; 29,19</t>
+          <t>16,55; 29,24</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>16,84; 28,56</t>
+          <t>20,3; 32,19</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>20,32; 30,74</t>
+          <t>15,16; 25,02</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>16,92; 25,21</t>
+          <t>26,0; 38,29</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>22,15; 30,53</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>20,12; 28,16</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>22,76; 32,15</t>
         </is>
       </c>
     </row>
@@ -1600,37 +2017,52 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>51,25%</t>
+          <t>48,29%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>57,85%</t>
+          <t>49,84%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>51,69%</t>
+          <t>50,64%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>57,21%</t>
+          <t>49,66%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>51,47%</t>
+          <t>51,15%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>57,53%</t>
+          <t>43,18%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>48,99%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>50,51%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>46,86%</t>
         </is>
       </c>
     </row>
@@ -1643,32 +2075,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>42,42; 60,92</t>
+          <t>40,88; 55,94</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>51,54; 65,04</t>
+          <t>43,54; 56,83</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>42,68; 59,5</t>
+          <t>40,05; 58,78</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>50,02; 64,09</t>
+          <t>42,97; 56,16</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>44,87; 57,23</t>
+          <t>44,69; 57,23</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>52,58; 62,79</t>
+          <t>37,02; 49,66</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>44,33; 54,3</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>45,94; 55,22</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>40,94; 51,77</t>
         </is>
       </c>
     </row>
@@ -1676,37 +2123,52 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>24,82%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>21,7%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>26,98%</t>
+          <t>26,57%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>24,54%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>29,56%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>25,1%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>24,68%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>25,75%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>25,83%</t>
         </is>
       </c>
     </row>
@@ -1719,74 +2181,100 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>14,2; 26,71</t>
+          <t>18,12; 33,01</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>17,91; 29,31</t>
+          <t>16,44; 27,67</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>20,54; 34,86</t>
+          <t>19,11; 42,82</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>15,25; 26,76</t>
+          <t>19,13; 30,27</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>18,84; 28,7</t>
+          <t>24,56; 34,78</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>17,93; 26,01</t>
+          <t>19,1; 31,39</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>20,27; 30,13</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>22,1; 29,89</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>21,1; 33,29</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>22,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>30,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>23,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>26,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1799,70 +2287,104 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>14,1; 33,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>20,56; 38,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>21,77; 39,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>17,48; 31,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>19,75; 33,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>20,88; 32,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>46,56%</t>
+          <t>29,07%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>46,03%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>50,29%</t>
+          <t>22,14%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>61,03%</t>
+          <t>21,37%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>48,61%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>54,13%</t>
+          <t>22,78%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>25,24%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>20,71%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>22,46%</t>
         </is>
       </c>
     </row>
@@ -1875,32 +2397,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>34,92; 61,59</t>
+          <t>22,15; 37,03</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>36,02; 55,97</t>
+          <t>13,79; 26,4</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>40,28; 59,57</t>
+          <t>15,25; 32,76</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>52,39; 68,55</t>
+          <t>15,45; 29,13</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>41,22; 57,94</t>
+          <t>17,52; 28,64</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>47,77; 60,16</t>
+          <t>16,09; 30,34</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>20,23; 30,4</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>16,98; 25,2</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>17,34; 28,05</t>
         </is>
       </c>
     </row>
@@ -1908,37 +2445,52 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>31,09%</t>
+          <t>50,85%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>57,63%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>19,64%</t>
+          <t>49,87%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>50,85%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>57,17%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>49,87%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>50,85%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>57,39%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>49,87%</t>
         </is>
       </c>
     </row>
@@ -1951,74 +2503,100 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>21,06; 40,71</t>
+          <t>42,08; 59,51</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>18,25; 33,91</t>
+          <t>51,34; 64,41</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>13,19; 26,93</t>
+          <t>40,31; 59,77</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>10,58; 22,49</t>
+          <t>42,79; 58,87</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>18,72; 31,13</t>
+          <t>49,94; 64,28</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>15,71; 25,19</t>
+          <t>40,63; 59,36</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>44,91; 57,0</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>52,55; 61,93</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>42,74; 56,46</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>26,27%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>24,72%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>28,0%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>27,79%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>27,36%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>23,91%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>21,9%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>27,68%</t>
         </is>
       </c>
     </row>
@@ -2031,32 +2609,47 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>23,15; 29,98</t>
+          <t>14,62; 27,7</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>21,4; 28,99</t>
+          <t>18,03; 29,7</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>21,78; 27,82</t>
+          <t>19,94; 37,06</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>17,35; 21,86</t>
+          <t>21,22; 36,09</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>23,17; 27,8</t>
+          <t>14,8; 26,13</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>20,08; 24,53</t>
+          <t>19,52; 35,74</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>19,38; 28,7</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>18,1; 26,17</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>21,48; 33,69</t>
         </is>
       </c>
     </row>
@@ -2064,37 +2657,52 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>51,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>54,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>53,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>60,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>52,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>57,06%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2107,70 +2715,104 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>47,4; 55,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>50,42; 57,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>50,37; 56,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>57,22; 63,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>49,96; 55,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>54,5; 59,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>22,27%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>28,42%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>29,35%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>24,27%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>19,0%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>26,4%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>26,15%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>22,5%</t>
         </is>
       </c>
     </row>
@@ -2183,48 +2825,816 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>18,97; 25,58</t>
+          <t>15,35; 32,44</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>18,87; 24,2</t>
+          <t>20,63; 38,01</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>19,42; 24,87</t>
+          <t>17,58; 39,67</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>18,4; 23,07</t>
+          <t>21,4; 40,61</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>20,18; 24,16</t>
+          <t>17,16; 31,97</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>19,17; 22,68</t>
+          <t>11,14; 31,37</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>20,65; 33,98</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>21,1; 31,89</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>16,51; 32,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>44,26%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>45,47%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>47,29%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>50,66%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>60,5%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>52,27%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>47,81%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>53,68%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>50,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>33,84; 57,63</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>36,63; 55,26</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>35,8; 59,56</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>42,24; 60,42</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>52,66; 68,56</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>39,24; 62,9</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>40,46; 54,92</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>47,89; 59,72</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>41,97; 57,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>33,02%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>26,11%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>25,64%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>19,99%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>15,23%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>28,73%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>25,79%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>20,17%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>27,39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>23,12; 42,88</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>18,79; 33,72</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>16,85; 37,67</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>13,7; 27,97</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>10,39; 21,85</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>19,64; 38,27</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>20,13; 31,72</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>15,4; 24,7</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>21,23; 35,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>25,62%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>24,84%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>23,13%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>24,32%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>19,74%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>21,09%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>24,96%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>22,25%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>22,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>22,29; 28,85</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>21,5; 29,55</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>19,23; 26,77</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>21,62; 27,44</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>17,6; 22,11</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>18,02; 24,22</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>22,76; 27,14</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>20,21; 24,47</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>19,81; 24,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>51,54%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>53,22%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>49,36%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>53,54%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>59,76%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>57,03%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>52,56%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>56,54%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>53,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>47,58; 55,87</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>49,18; 56,89</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>44,33; 54,23</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>50,46; 56,74</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>57,01; 62,69</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>53,18; 60,37</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>50,06; 55,04</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>54,42; 58,98</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>49,86; 56,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>22,84%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>21,94%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>27,51%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>22,14%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>20,5%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>21,88%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>22,48%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>21,21%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>24,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>19,93; 26,54</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>19,13; 24,76</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>22,92; 35,0</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>19,43; 24,71</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>18,2; 23,0</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>19,16; 25,31</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>20,45; 25,02</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>19,48; 22,9</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>21,88; 28,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
